--- a/biology/Médecine/Marc_Dechavanne/Marc_Dechavanne.xlsx
+++ b/biology/Médecine/Marc_Dechavanne/Marc_Dechavanne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marc, Michel Dechavanne, né le 26 décembre 1939, est un professeur des universités spécialisé en médecine nucléaire appliquée à l'hématologie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc, Michel Dechavanne, né le 26 décembre 1939, est un professeur des universités spécialisé en médecine nucléaire appliquée à l'hématologie.
 Il a occupé le poste de président de l'université Claude Bernard Lyon 1 entre 1997 et 2001.
 Il est président du Comité de Coordination des Études Médicales des Hôpitaux de Lyon.
-Il est par ailleurs nommé au conseil d'administration de l'École normale supérieure de Lyon en novembre 2000[2], et a aussi été président du pôle universitaire lyonnais[3].
-En 1999-2002, il est le coordinateur du projet de développement d'un Réseau européen d'Infections Nosocomiales pour l'harmonisation d'une politique de surveillance, puis pour de nouvelles initiatives visant à réduire l'incidence des infections en milieu hospitalier[4].
-En 1999, il est fait docteur honoris causa de l'université de médecine de Łódź en Pologne[5].
-Il est fait chevalier de l'ordre national du Mérite en 2002[6].
+Il est par ailleurs nommé au conseil d'administration de l'École normale supérieure de Lyon en novembre 2000, et a aussi été président du pôle universitaire lyonnais.
+En 1999-2002, il est le coordinateur du projet de développement d'un Réseau européen d'Infections Nosocomiales pour l'harmonisation d'une politique de surveillance, puis pour de nouvelles initiatives visant à réduire l'incidence des infections en milieu hospitalier.
+En 1999, il est fait docteur honoris causa de l'université de médecine de Łódź en Pologne.
+Il est fait chevalier de l'ordre national du Mérite en 2002.
 </t>
         </is>
       </c>
@@ -518,6 +530,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
